--- a/data/Images/Mair_etal_2021/data.xlsx
+++ b/data/Images/Mair_etal_2021/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anchor200/Desktop/Research/Ronbun_yomi/data/Images/Mair_etal_2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9B1CB-6FC5-EC49-9E45-F9A70EC647A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB066D1-58BB-8642-BB98-8AF2AE8E4C9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="8220" windowWidth="28300" windowHeight="15960" xr2:uid="{2BFC7049-B03E-8E4F-BACB-A486285B1FBA}"/>
+    <workbookView xWindow="240" yWindow="8200" windowWidth="28300" windowHeight="15960" xr2:uid="{2BFC7049-B03E-8E4F-BACB-A486285B1FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>脅威削減と生息地再生</t>
     <rPh sb="0" eb="2">
@@ -90,23 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Data Deficient / Not Evaluated になっている種</t>
-    <rPh sb="37" eb="38">
-      <t xml:space="preserve">シュ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査を行う</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">チョウサヲ </t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t xml:space="preserve">オコナウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IUCNレッドリストによる種の絶滅リスクカテゴリー</t>
     <rPh sb="13" eb="14">
       <t xml:space="preserve">シュノゼツメツリスク </t>
@@ -114,29 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データが増えた際に再計算をする</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">フエタサイニ </t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t xml:space="preserve">サイケイサンヲスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>絶滅リスクカテゴリーやそのデータの利用可能性は変化する</t>
-    <rPh sb="0" eb="2">
-      <t>ゼツ</t>
-    </rPh>
-    <rPh sb="17" eb="22">
-      <t xml:space="preserve">リヨウカノウセイハ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">ヘンカスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>種への脅威</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">シュヘノキョウイ </t>
@@ -157,64 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>脅威の記載が不完全</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キョウイガ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">キサイガフカンゼン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脅威の範囲と深刻さの記載が不完全</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">キョウイノ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ハンイ </t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">シンコクサガ </t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キs</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脅威やその深刻さに空間的変異がある</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キョウイヤ </t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">シンコクサニ </t>
-    </rPh>
-    <rPh sb="9" eb="14">
-      <t xml:space="preserve">クウカンテキヘンイガアル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>脅威の深刻さの分布を用いて詳細に計算する</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キョウイノ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">シンコクサノブンプヲ </t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t xml:space="preserve">モチイテ </t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t xml:space="preserve">ショウサイニ </t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">サイケイサンスル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>脅威削減のみ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -225,29 +127,6 @@
     </rPh>
     <rPh sb="3" eb="6">
       <t xml:space="preserve">セイソクチ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>range mapは生息適地を表すが，その場所に実際に種がいるかは不明</t>
-    <rPh sb="10" eb="14">
-      <t xml:space="preserve">セイソクテキチヲアラワスガ </t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t xml:space="preserve">フメイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>在不在データなどを用いて種分布の正しい情報を用いる</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ザイフザイ </t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t xml:space="preserve">シュブンプヲ </t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t xml:space="preserve">タダシイジョウホウヲモチイル </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -452,6 +331,137 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t xml:space="preserve">チイキゴトノアタイハコトナル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地域ごとの再生率を計算する．</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チイキゴトノ </t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t xml:space="preserve">サイセイリツヲケイサンスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅威の深刻さの分布を用いて詳細に計算する．</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウイノ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">シンコクサノブンプヲ </t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t xml:space="preserve">モチイテ </t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t xml:space="preserve">ショウサイニ </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">サイケイサンスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在不在データなどを用いて種分布の正しい情報を用いる．</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ザイフザイ </t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t xml:space="preserve">シュブンプヲ </t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t xml:space="preserve">タダシイジョウホウヲモチイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが増えた際に再計算をする．</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">フエタサイニ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t xml:space="preserve">サイケイサンヲスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査を行う．</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">チョウサヲ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">オコナウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絶滅リスクカテゴリーやそのデータの利用可能性は変化する．</t>
+    <rPh sb="0" eb="2">
+      <t>ゼツ</t>
+    </rPh>
+    <rPh sb="17" eb="22">
+      <t xml:space="preserve">リヨウカノウセイハ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ヘンカスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Data Deficient / Not Evaluated になっている種がある．</t>
+    <rPh sb="37" eb="38">
+      <t xml:space="preserve">シュ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅威の記載が不完全．</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウイガ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">キサイガフカンゼン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅威の範囲と深刻さの記載が不完全．</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キョウイノ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ハンイ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">シンコクサガ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キs</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脅威やその深刻さに空間的変異がある．</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウイヤ </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">シンコクサニ </t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t xml:space="preserve">クウカンテキヘンイガアル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>range mapは生息適地を表すが，その場所に実際に種がいるかは不明．</t>
+    <rPh sb="10" eb="14">
+      <t xml:space="preserve">セイソクテキチヲアラワスガ </t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t xml:space="preserve">フメイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -822,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA38AA-50DB-DE46-BA5D-2303DC45163E}">
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -858,56 +868,56 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -915,21 +925,21 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -937,27 +947,30 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
